--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marinko\IdeaProjects\GitTest\src\main\java\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marinko\IdeaProjects\GitTest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Apache_POI_TC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>testuser_1</t>
   </si>
@@ -41,10 +38,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>UDF_TC</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
   </si>
 </sst>
 </file>
@@ -410,34 +413,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marinko\IdeaProjects\GitTest\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marinko\IdeaProjects\AutomationFrameworkLab\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>testuser_1</t>
   </si>
@@ -48,6 +48,54 @@
   </si>
   <si>
     <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>35, Marconi House</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Lakshay@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -410,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +469,7 @@
     <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -434,8 +482,35 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -447,11 +522,36 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>44940904</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>testuser_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -38,12 +35,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>UDF_TC</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -96,13 +87,28 @@
   </si>
   <si>
     <t>Lakshay@gmail.com</t>
+  </si>
+  <si>
+    <t>Framework_001</t>
+  </si>
+  <si>
+    <t>b_test</t>
+  </si>
+  <si>
+    <t>MEk2Fip#Fpoh6h#g</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>Product 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF658ABA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,9 +153,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -458,101 +474,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="5" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2">
+        <v>44940904</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>44940904</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>